--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="590">
   <si>
     <t>Property</t>
   </si>
@@ -294,366 +294,370 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>bodyPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationBodyHeightBodyPosition}
+</t>
+  </si>
+  <si>
+    <t>Position of individual when measured.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>bodyPosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationBodyHeightBodyPosition}
-</t>
-  </si>
-  <si>
-    <t>Position of individual when measured.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>value:coding.code}
-value:coding.system}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>VSCat</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4243,13 +4247,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4300,7 +4304,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4324,7 +4328,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4335,7 +4339,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4361,10 +4365,10 @@
         <v>134</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>149</v>
@@ -4408,7 +4412,7 @@
         <v>137</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>79</v>
@@ -4417,7 +4421,7 @@
         <v>138</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4441,7 +4445,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4452,7 +4456,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4475,19 +4479,19 @@
         <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4536,7 +4540,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4557,10 +4561,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4571,7 +4575,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4594,13 +4598,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4651,7 +4655,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4675,7 +4679,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4686,7 +4690,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4712,10 +4716,10 @@
         <v>134</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>149</v>
@@ -4759,7 +4763,7 @@
         <v>137</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
@@ -4768,7 +4772,7 @@
         <v>138</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4792,7 +4796,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4803,7 +4807,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4829,23 +4833,23 @@
         <v>103</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>79</v>
@@ -4887,7 +4891,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4908,10 +4912,10 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4922,7 +4926,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4945,16 +4949,16 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5004,7 +5008,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5025,10 +5029,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5039,7 +5043,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5065,21 +5069,21 @@
         <v>109</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>79</v>
@@ -5121,7 +5125,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5142,10 +5146,10 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5156,7 +5160,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5179,17 +5183,17 @@
         <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5238,7 +5242,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5259,10 +5263,10 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5273,7 +5277,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5296,19 +5300,19 @@
         <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5357,7 +5361,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5378,10 +5382,10 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5392,7 +5396,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5415,19 +5419,19 @@
         <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5476,7 +5480,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5497,10 +5501,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5511,11 +5515,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5537,16 +5541,16 @@
         <v>192</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5571,13 +5575,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5595,7 +5599,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>89</v>
@@ -5610,27 +5614,27 @@
         <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5653,13 +5657,13 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5710,7 +5714,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5734,7 +5738,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5745,7 +5749,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5771,10 +5775,10 @@
         <v>134</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>149</v>
@@ -5818,7 +5822,7 @@
         <v>137</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
@@ -5827,7 +5831,7 @@
         <v>138</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5851,7 +5855,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5862,7 +5866,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5885,19 +5889,19 @@
         <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5934,7 +5938,7 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
@@ -5944,7 +5948,7 @@
         <v>138</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5965,10 +5969,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5979,10 +5983,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>79</v>
@@ -6004,19 +6008,19 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6065,7 +6069,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6086,10 +6090,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6100,7 +6104,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6123,13 +6127,13 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6180,7 +6184,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6204,7 +6208,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6215,7 +6219,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6241,10 +6245,10 @@
         <v>134</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>149</v>
@@ -6288,7 +6292,7 @@
         <v>137</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
@@ -6297,7 +6301,7 @@
         <v>138</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6321,7 +6325,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6332,7 +6336,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6358,23 +6362,23 @@
         <v>103</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
@@ -6416,7 +6420,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6437,10 +6441,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6451,7 +6455,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6474,16 +6478,16 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6533,7 +6537,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6554,10 +6558,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6568,7 +6572,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6594,21 +6598,21 @@
         <v>109</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>79</v>
@@ -6650,7 +6654,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6671,10 +6675,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6685,7 +6689,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6708,17 +6712,17 @@
         <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6767,7 +6771,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6788,10 +6792,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6802,7 +6806,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6825,19 +6829,19 @@
         <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6886,7 +6890,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6907,10 +6911,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6921,7 +6925,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6944,19 +6948,19 @@
         <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7005,7 +7009,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7026,10 +7030,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7040,7 +7044,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7063,19 +7067,19 @@
         <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7124,7 +7128,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7139,19 +7143,19 @@
         <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7159,7 +7163,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7182,16 +7186,16 @@
         <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7241,7 +7245,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7262,13 +7266,13 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7276,11 +7280,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7299,19 +7303,19 @@
         <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7360,7 +7364,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7375,19 +7379,19 @@
         <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7395,11 +7399,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7418,19 +7422,19 @@
         <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7479,7 +7483,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7488,25 +7492,25 @@
         <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7514,7 +7518,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7537,16 +7541,16 @@
         <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7596,7 +7600,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7617,13 +7621,13 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7631,7 +7635,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7654,17 +7658,17 @@
         <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7701,7 +7705,7 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
@@ -7711,7 +7715,7 @@
         <v>138</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7726,19 +7730,19 @@
         <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7746,10 +7750,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>79</v>
@@ -7771,17 +7775,17 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7830,7 +7834,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7845,19 +7849,19 @@
         <v>101</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7865,10 +7869,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
@@ -7890,17 +7894,17 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7949,7 +7953,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7964,19 +7968,19 @@
         <v>101</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7984,7 +7988,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8007,19 +8011,19 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8056,17 +8060,17 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8075,7 +8079,7 @@
         <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>101</v>
@@ -8084,27 +8088,27 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>79</v>
@@ -8126,19 +8130,19 @@
         <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8187,7 +8191,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8196,7 +8200,7 @@
         <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>101</v>
@@ -8205,24 +8209,24 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8245,13 +8249,13 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8302,7 +8306,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8326,7 +8330,7 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8337,7 +8341,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8363,10 +8367,10 @@
         <v>134</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>149</v>
@@ -8410,7 +8414,7 @@
         <v>137</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
@@ -8419,7 +8423,7 @@
         <v>138</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8443,7 +8447,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8454,7 +8458,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8477,19 +8481,19 @@
         <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8538,7 +8542,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8559,10 +8563,10 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8573,7 +8577,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8599,20 +8603,20 @@
         <v>109</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8636,10 +8640,10 @@
         <v>184</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8657,7 +8661,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8678,10 +8682,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8692,7 +8696,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8715,17 +8719,17 @@
         <v>90</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8774,7 +8778,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8795,10 +8799,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8809,7 +8813,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8835,21 +8839,21 @@
         <v>103</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>79</v>
@@ -8891,7 +8895,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8900,7 +8904,7 @@
         <v>89</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>101</v>
@@ -8912,10 +8916,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8926,7 +8930,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8952,16 +8956,16 @@
         <v>109</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8989,10 +8993,10 @@
         <v>184</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -9010,7 +9014,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9031,10 +9035,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9045,7 +9049,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9071,16 +9075,16 @@
         <v>192</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9105,13 +9109,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9129,7 +9133,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9138,7 +9142,7 @@
         <v>89</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>101</v>
@@ -9153,7 +9157,7 @@
         <v>132</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9164,11 +9168,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9190,16 +9194,16 @@
         <v>192</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9224,13 +9228,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9248,7 +9252,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9266,24 +9270,24 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9306,19 +9310,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9367,7 +9371,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9388,10 +9392,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9402,7 +9406,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9428,13 +9432,13 @@
         <v>192</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9460,13 +9464,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9484,7 +9488,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9502,24 +9506,24 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9545,16 +9549,16 @@
         <v>192</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9579,13 +9583,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9603,7 +9607,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9624,10 +9628,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9638,7 +9642,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9661,16 +9665,16 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9720,7 +9724,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9738,24 +9742,24 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9778,16 +9782,16 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9837,7 +9841,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9855,24 +9859,24 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9895,19 +9899,19 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9956,7 +9960,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9968,7 +9972,7 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9977,10 +9981,10 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9991,7 +9995,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10014,13 +10018,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10071,7 +10075,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10095,7 +10099,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10106,7 +10110,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10132,10 +10136,10 @@
         <v>134</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>149</v>
@@ -10188,7 +10192,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10212,7 +10216,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10223,11 +10227,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10249,10 +10253,10 @@
         <v>134</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>149</v>
@@ -10307,7 +10311,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10342,7 +10346,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10365,13 +10369,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10422,7 +10426,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10431,7 +10435,7 @@
         <v>89</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>101</v>
@@ -10443,10 +10447,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10457,7 +10461,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10480,13 +10484,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10537,7 +10541,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10546,7 +10550,7 @@
         <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>101</v>
@@ -10558,10 +10562,10 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10572,7 +10576,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10598,16 +10602,16 @@
         <v>192</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10635,10 +10639,10 @@
         <v>113</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10656,7 +10660,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10674,13 +10678,13 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10691,7 +10695,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10717,16 +10721,16 @@
         <v>192</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10751,13 +10755,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10775,7 +10779,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10793,13 +10797,13 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10810,7 +10814,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10833,17 +10837,17 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10892,7 +10896,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10916,7 +10920,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10927,7 +10931,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10950,13 +10954,13 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11007,7 +11011,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11028,10 +11032,10 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11042,7 +11046,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11065,16 +11069,16 @@
         <v>90</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11124,7 +11128,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11145,10 +11149,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11159,7 +11163,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11182,16 +11186,16 @@
         <v>90</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11241,7 +11245,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11262,10 +11266,10 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11276,7 +11280,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11299,19 +11303,19 @@
         <v>90</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11360,7 +11364,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11372,7 +11376,7 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11381,10 +11385,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11395,7 +11399,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11418,13 +11422,13 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11475,7 +11479,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11499,7 +11503,7 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11510,7 +11514,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11536,10 +11540,10 @@
         <v>134</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>149</v>
@@ -11592,7 +11596,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11616,7 +11620,7 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11627,11 +11631,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11653,10 +11657,10 @@
         <v>134</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>149</v>
@@ -11711,7 +11715,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11746,7 +11750,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11772,16 +11776,16 @@
         <v>192</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11806,13 +11810,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11830,7 +11834,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>89</v>
@@ -11848,16 +11852,16 @@
         <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11865,7 +11869,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11888,19 +11892,19 @@
         <v>90</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11928,10 +11932,10 @@
         <v>184</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11949,7 +11953,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11958,7 +11962,7 @@
         <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>101</v>
@@ -11967,24 +11971,24 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12010,16 +12014,16 @@
         <v>192</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12044,13 +12048,13 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -12068,7 +12072,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12077,7 +12081,7 @@
         <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>101</v>
@@ -12092,7 +12096,7 @@
         <v>132</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12103,11 +12107,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12129,16 +12133,16 @@
         <v>192</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12163,13 +12167,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12187,7 +12191,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12205,24 +12209,24 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12248,16 +12252,16 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12306,7 +12310,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12327,10 +12331,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="589">
   <si>
     <t>Property</t>
   </si>
@@ -269,10 +269,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -1146,14 +1142,14 @@
     <t>Author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
 </t>
   </si>
   <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization|CareTeam|Patient|RelatedPerson)
+    <t>organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -2446,19 +2442,19 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2469,7 +2465,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2480,28 +2476,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2551,13 +2547,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2586,7 +2582,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2597,25 +2593,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2666,19 +2662,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2701,7 +2697,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2712,28 +2708,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2783,19 +2779,19 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>79</v>
@@ -2818,7 +2814,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2829,7 +2825,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -2841,16 +2837,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2876,43 +2872,43 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -2935,18 +2931,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -2958,16 +2954,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3017,31 +3013,31 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -3052,11 +3048,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3075,16 +3071,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3134,7 +3130,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -3158,7 +3154,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3169,7 +3165,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3192,13 +3188,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3237,17 +3233,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3259,7 +3255,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3282,10 +3278,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3295,7 +3291,7 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
@@ -3307,13 +3303,13 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3364,7 +3360,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3373,10 +3369,10 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3388,7 +3384,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3399,11 +3395,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3416,25 +3412,25 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
@@ -3483,7 +3479,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3495,7 +3491,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3507,7 +3503,7 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -3518,7 +3514,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3538,20 +3534,20 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3600,7 +3596,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3612,22 +3608,22 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
@@ -3635,11 +3631,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3655,20 +3651,20 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>79</v>
@@ -3717,7 +3713,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3729,19 +3725,19 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3752,11 +3748,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3772,19 +3768,19 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3834,7 +3830,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3846,19 +3842,19 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3869,7 +3865,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3877,34 +3873,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="H15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3929,56 +3925,56 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3986,7 +3982,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3994,13 +3990,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -4009,19 +4005,19 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -4046,29 +4042,29 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4080,7 +4076,7 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
@@ -4092,10 +4088,10 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -4103,24 +4099,24 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4128,19 +4124,19 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -4165,14 +4161,14 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4189,7 +4185,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4201,7 +4197,7 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4213,10 +4209,10 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -4224,7 +4220,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4235,7 +4231,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -4247,13 +4243,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4304,31 +4300,31 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4339,11 +4335,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4362,16 +4358,16 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4409,19 +4405,19 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AE19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4433,7 +4429,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4445,7 +4441,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4456,7 +4452,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4464,34 +4460,34 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4540,7 +4536,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4552,7 +4548,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4561,10 +4557,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4575,7 +4571,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4586,7 +4582,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4598,13 +4594,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4655,31 +4651,31 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4690,11 +4686,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4713,16 +4709,16 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="M22" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4760,19 +4756,19 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AE22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4784,7 +4780,7 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -4796,7 +4792,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4807,7 +4803,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4815,107 +4811,107 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4926,7 +4922,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4937,28 +4933,28 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5008,31 +5004,31 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5043,7 +5039,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5051,105 +5047,105 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="R25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5160,7 +5156,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5171,29 +5167,29 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5242,31 +5238,31 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5277,7 +5273,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5288,31 +5284,31 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5361,31 +5357,31 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5396,7 +5392,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5407,31 +5403,31 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5480,31 +5476,31 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5515,42 +5511,42 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5575,66 +5571,66 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5645,7 +5641,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5657,13 +5653,13 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5714,31 +5710,31 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5749,11 +5745,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5772,16 +5768,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5819,19 +5815,19 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AE31" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5843,7 +5839,7 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5855,7 +5851,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5866,7 +5862,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5886,22 +5882,22 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5938,17 +5934,17 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5960,7 +5956,7 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -5969,10 +5965,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5983,44 +5979,44 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6069,7 +6065,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6081,7 +6077,7 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
@@ -6090,10 +6086,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6104,7 +6100,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6115,7 +6111,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6127,13 +6123,13 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6184,31 +6180,31 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6219,11 +6215,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6242,16 +6238,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6289,19 +6285,19 @@
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB35" t="s" s="2">
+      <c r="AE35" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6313,7 +6309,7 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>79</v>
@@ -6325,7 +6321,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6336,7 +6332,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6344,41 +6340,41 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
@@ -6420,31 +6416,31 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6455,7 +6451,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6466,28 +6462,28 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6537,31 +6533,31 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6572,7 +6568,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6580,39 +6576,39 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>79</v>
@@ -6654,31 +6650,31 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6689,7 +6685,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6700,29 +6696,29 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6771,31 +6767,31 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6806,7 +6802,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6817,31 +6813,31 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6890,31 +6886,31 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6925,7 +6921,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6936,31 +6932,31 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7009,31 +7005,31 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7044,7 +7040,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7052,34 +7048,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="H42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7128,34 +7124,34 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7163,7 +7159,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7183,19 +7179,19 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7245,7 +7241,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7257,7 +7253,7 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -7266,13 +7262,13 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7280,42 +7276,42 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7364,34 +7360,34 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7399,42 +7395,42 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7483,34 +7479,34 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AI45" t="s" s="2">
+      <c r="AJ45" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7518,7 +7514,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7529,28 +7525,28 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7600,19 +7596,19 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7621,13 +7617,13 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7635,7 +7631,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7655,20 +7651,20 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7705,17 +7701,17 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7727,22 +7723,22 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7750,10 +7746,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>79</v>
@@ -7772,20 +7768,20 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7834,7 +7830,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7846,22 +7842,22 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7869,10 +7865,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
@@ -7891,20 +7887,20 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7953,7 +7949,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7965,22 +7961,22 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7988,7 +7984,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7999,31 +7995,31 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8060,55 +8056,55 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH50" t="s" s="2">
+      <c r="AI50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AI50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>79</v>
@@ -8118,31 +8114,31 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8191,42 +8187,42 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AI51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8237,7 +8233,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -8249,13 +8245,13 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8306,31 +8302,31 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8341,11 +8337,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8364,16 +8360,16 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8411,19 +8407,19 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB53" t="s" s="2">
+      <c r="AE53" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8435,7 +8431,7 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8447,7 +8443,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8458,7 +8454,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8466,34 +8462,34 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8542,31 +8538,31 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8577,7 +8573,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8588,104 +8584,104 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="O55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P55" t="s" s="2">
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X55" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X55" t="s" s="2">
+      <c r="Y55" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y55" t="s" s="2">
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8696,7 +8692,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8704,32 +8700,32 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8778,31 +8774,31 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8813,7 +8809,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8821,105 +8817,105 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="R57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AF57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH57" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH57" t="s" s="2">
+      <c r="AI57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8930,7 +8926,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8938,34 +8934,34 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8990,55 +8986,55 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9049,7 +9045,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9060,11 +9056,11 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9072,19 +9068,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9109,55 +9105,55 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH59" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH59" t="s" s="2">
+      <c r="AI59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9168,11 +9164,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9191,19 +9187,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9228,14 +9224,14 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9252,7 +9248,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9264,30 +9260,30 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9310,19 +9306,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9371,7 +9367,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9383,7 +9379,7 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9392,10 +9388,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9406,7 +9402,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9417,7 +9413,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9429,16 +9425,16 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9464,66 +9460,66 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="X62" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="X62" t="s" s="2">
+      <c r="Y62" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9534,7 +9530,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9546,19 +9542,19 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9583,55 +9579,55 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9642,7 +9638,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9653,7 +9649,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9665,16 +9661,16 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9724,42 +9720,42 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>480</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9770,7 +9766,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9782,16 +9778,16 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9841,42 +9837,42 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>489</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9899,19 +9895,19 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9960,7 +9956,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9972,19 +9968,19 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9995,7 +9991,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10006,7 +10002,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -10018,13 +10014,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10075,31 +10071,31 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10110,11 +10106,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10133,16 +10129,16 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10192,7 +10188,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10204,7 +10200,7 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -10216,7 +10212,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10227,11 +10223,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10244,25 +10240,25 @@
         <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>504</v>
-      </c>
       <c r="M69" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10311,7 +10307,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10323,7 +10319,7 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
@@ -10335,7 +10331,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10346,7 +10342,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10357,7 +10353,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -10369,13 +10365,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10426,31 +10422,31 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AI70" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10461,7 +10457,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10472,7 +10468,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10484,13 +10480,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10541,31 +10537,31 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AI71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>511</v>
-      </c>
       <c r="AM71" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10576,7 +10572,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10587,7 +10583,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10599,19 +10595,19 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10636,55 +10632,55 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AM72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10695,7 +10691,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10718,19 +10714,19 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10755,14 +10751,14 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10779,7 +10775,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10791,19 +10787,19 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AM73" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10814,7 +10810,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10825,7 +10821,7 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10837,17 +10833,17 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10896,19 +10892,19 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
@@ -10920,7 +10916,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10931,7 +10927,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10942,7 +10938,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
@@ -10954,13 +10950,13 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11011,19 +11007,19 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>79</v>
@@ -11032,10 +11028,10 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11046,7 +11042,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11066,19 +11062,19 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11128,7 +11124,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11140,7 +11136,7 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11149,10 +11145,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11163,7 +11159,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11183,19 +11179,19 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11245,7 +11241,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11257,7 +11253,7 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11266,10 +11262,10 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11280,7 +11276,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11294,28 +11290,28 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11364,7 +11360,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11376,19 +11372,19 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11399,7 +11395,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11410,7 +11406,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11422,13 +11418,13 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11479,31 +11475,31 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11514,11 +11510,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11537,16 +11533,16 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="M80" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11596,7 +11592,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11608,7 +11604,7 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
@@ -11620,7 +11616,7 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11631,11 +11627,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11648,25 +11644,25 @@
         <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>504</v>
-      </c>
       <c r="M81" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11715,7 +11711,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11727,7 +11723,7 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
@@ -11739,7 +11735,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11750,7 +11746,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11758,34 +11754,34 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11810,14 +11806,14 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="X82" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="X82" t="s" s="2">
+      <c r="Y82" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11834,34 +11830,34 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11869,7 +11865,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11880,31 +11876,31 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G83" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G83" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11929,66 +11925,66 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="Y83" t="s" s="2">
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH83" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="Z83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH83" t="s" s="2">
+      <c r="AI83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="AI83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="AL83" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11999,11 +11995,11 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G84" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12011,19 +12007,19 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12048,14 +12044,14 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12072,19 +12068,19 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>79</v>
@@ -12093,10 +12089,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12107,11 +12103,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12130,19 +12126,19 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12167,14 +12163,14 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12191,7 +12187,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12203,30 +12199,30 @@
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL85" t="s" s="2">
+      <c r="AM85" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12252,16 +12248,16 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="M86" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12310,7 +12306,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12322,7 +12318,7 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
@@ -12331,10 +12327,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="634">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -577,7 +577,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1108,7 +1108,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1166,7 +1166,7 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the Timing datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -1205,7 +1205,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the `lastUpdated` time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1314,9 +1314,6 @@
     <t>valueQuantity</t>
   </si>
   <si>
-    <t>The length of the body from crown of head to sole of foot.</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueQuantity.id</t>
   </si>
   <si>
@@ -1572,7 +1569,8 @@
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.</t>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>example</t>
@@ -1864,7 +1862,7 @@
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see Notes below.  Note that a system may calculate results from QuestionnaireResponse into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1886,7 +1884,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see Notes below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1898,7 +1896,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see Notes below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -9388,7 +9386,7 @@
         <v>403</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>404</v>
@@ -9481,10 +9479,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9599,10 +9597,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9719,10 +9717,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9745,19 +9743,19 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9806,7 +9804,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9827,10 +9825,10 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9841,10 +9839,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9870,20 +9868,20 @@
         <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>80</v>
@@ -9907,28 +9905,28 @@
         <v>187</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z63" t="s" s="2">
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9949,10 +9947,10 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9963,10 +9961,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9992,14 +9990,14 @@
         <v>209</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10048,7 +10046,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10069,10 +10067,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10083,10 +10081,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10112,72 +10110,72 @@
         <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="S65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF65" t="s" s="2">
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -10189,10 +10187,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10203,10 +10201,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10232,16 +10230,16 @@
         <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10269,28 +10267,28 @@
         <v>187</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10311,10 +10309,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10325,10 +10323,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10354,16 +10352,16 @@
         <v>195</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10391,37 +10389,37 @@
         <v>294</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Z67" t="s" s="2">
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -10436,7 +10434,7 @@
         <v>134</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10447,14 +10445,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10476,16 +10474,16 @@
         <v>195</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10513,11 +10511,11 @@
         <v>294</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10534,7 +10532,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10552,27 +10550,27 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10595,19 +10593,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10656,7 +10654,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10677,10 +10675,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10691,10 +10689,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10720,13 +10718,13 @@
         <v>195</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10752,14 +10750,14 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>503</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10776,7 +10774,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10794,27 +10792,27 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>507</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10840,16 +10838,16 @@
         <v>195</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10874,14 +10872,14 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10898,7 +10896,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10919,10 +10917,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10933,10 +10931,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10959,16 +10957,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11018,7 +11016,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11036,27 +11034,27 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11079,16 +11077,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11138,7 +11136,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11156,27 +11154,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11199,19 +11197,19 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11260,7 +11258,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11272,19 +11270,19 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11295,10 +11293,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11413,10 +11411,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11533,14 +11531,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11562,10 +11560,10 @@
         <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>152</v>
@@ -11620,7 +11618,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11655,10 +11653,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11681,13 +11679,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11738,7 +11736,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11747,7 +11745,7 @@
         <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>103</v>
@@ -11759,10 +11757,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11773,10 +11771,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11799,13 +11797,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11856,7 +11854,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11865,7 +11863,7 @@
         <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>103</v>
@@ -11877,10 +11875,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11891,10 +11889,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11920,16 +11918,16 @@
         <v>195</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11957,11 +11955,11 @@
         <v>115</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>568</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11978,7 +11976,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11996,13 +11994,13 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="AM80" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="AN80" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12013,10 +12011,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12042,16 +12040,16 @@
         <v>195</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12076,14 +12074,14 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>577</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12100,7 +12098,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12118,13 +12116,13 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="AM81" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="AN81" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12135,10 +12133,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12161,17 +12159,17 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12220,7 +12218,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12244,7 +12242,7 @@
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12255,10 +12253,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12284,10 +12282,10 @@
         <v>209</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12338,7 +12336,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12359,10 +12357,10 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12373,10 +12371,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12399,16 +12397,16 @@
         <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12458,7 +12456,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12479,10 +12477,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12493,10 +12491,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12519,16 +12517,16 @@
         <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12578,7 +12576,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12599,10 +12597,10 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12613,10 +12611,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12639,19 +12637,19 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12700,7 +12698,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12712,19 +12710,19 @@
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="AK86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12735,10 +12733,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12853,10 +12851,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12973,14 +12971,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13002,10 +13000,10 @@
         <v>136</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>152</v>
@@ -13060,7 +13058,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13095,10 +13093,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13124,16 +13122,16 @@
         <v>195</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13182,7 +13180,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>91</v>
@@ -13200,7 +13198,7 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>299</v>
@@ -13217,10 +13215,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13243,16 +13241,16 @@
         <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>406</v>
@@ -13283,37 +13281,37 @@
         <v>187</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="Z91" t="s" s="2">
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI91" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
@@ -13322,7 +13320,7 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>411</v>
@@ -13339,10 +13337,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13368,16 +13366,16 @@
         <v>195</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="N92" t="s" s="2">
-        <v>629</v>
-      </c>
       <c r="O92" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13405,11 +13403,11 @@
         <v>294</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13426,7 +13424,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13435,7 +13433,7 @@
         <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13450,7 +13448,7 @@
         <v>134</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13461,14 +13459,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13490,16 +13488,16 @@
         <v>195</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13527,11 +13525,11 @@
         <v>294</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z93" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13548,7 +13546,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13566,27 +13564,27 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AO93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP93" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13612,16 +13610,16 @@
         <v>81</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>634</v>
-      </c>
       <c r="N94" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O94" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13670,7 +13668,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13691,10 +13689,10 @@
         <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
